--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljevica-marka/637d05681adea1f4a70d45ad</t>
   </si>
@@ -761,12 +761,16 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/mise-dimitrijevica/6339fa175936bf895b08c5c1</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/centar-novi-sad/63aec8a12562e3893a016eb4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1102,7 +1106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A249"/>
+  <dimension ref="A1:A250"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
       <selection activeCell="E242" sqref="E242"/>
@@ -1111,1248 +1115,1253 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" t="s" s="0">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" t="s" s="0">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" t="s" s="0">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" t="s" s="0">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" t="s" s="0">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" t="s" s="0">
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" t="s" s="0">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" t="s" s="0">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" t="s" s="0">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" t="s" s="0">
         <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" t="s" s="0">
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" t="s" s="0">
         <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" t="s" s="0">
         <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" t="s" s="0">
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" t="s" s="0">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" t="s" s="0">
         <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" t="s" s="0">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" t="s" s="0">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" t="s" s="0">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" t="s" s="0">
         <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" t="s" s="0">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" t="s" s="0">
         <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" t="s" s="0">
         <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" t="s" s="0">
         <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" t="s" s="0">
         <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" t="s" s="0">
         <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" t="s" s="0">
         <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" t="s" s="0">
         <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" t="s" s="0">
         <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" t="s" s="0">
         <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" t="s" s="0">
         <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" t="s" s="0">
         <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" t="s" s="0">
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" t="s" s="0">
         <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" t="s" s="0">
         <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" t="s" s="0">
         <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" t="s" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" t="s" s="0">
         <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" t="s" s="0">
         <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" t="s" s="0">
         <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" t="s" s="0">
         <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" t="s" s="0">
         <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" t="s" s="0">
         <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" t="s" s="0">
         <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" t="s" s="0">
         <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" t="s" s="0">
         <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" t="s" s="0">
         <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" t="s" s="0">
         <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" t="s" s="0">
         <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" t="s" s="0">
         <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" t="s" s="0">
         <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156" t="s" s="0">
         <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" t="s" s="0">
         <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" t="s" s="0">
         <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" t="s" s="0">
         <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" t="s" s="0">
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" t="s" s="0">
         <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" t="s" s="0">
         <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" t="s" s="0">
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" t="s" s="0">
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" t="s" s="0">
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" t="s" s="0">
         <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="A167" t="s" s="0">
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168" t="s" s="0">
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" t="s" s="0">
         <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" t="s" s="0">
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" t="s" s="0">
         <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" t="s" s="0">
         <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" t="s" s="0">
         <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" t="s" s="0">
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" t="s" s="0">
         <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176" t="s" s="0">
         <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" t="s" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178" t="s" s="0">
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" t="s" s="0">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" t="s" s="0">
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181" t="s" s="0">
         <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" t="s" s="0">
         <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" t="s" s="0">
         <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184" t="s" s="0">
         <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" t="s" s="0">
         <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" t="s" s="0">
         <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" t="s" s="0">
         <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" t="s" s="0">
         <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" t="s" s="0">
         <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" t="s" s="0">
         <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191" t="s" s="0">
         <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192" t="s" s="0">
         <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" t="s" s="0">
         <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" t="s" s="0">
         <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195" t="s" s="0">
         <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" t="s" s="0">
         <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" t="s" s="0">
         <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" t="s" s="0">
         <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" t="s" s="0">
         <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" t="s" s="0">
         <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" t="s" s="0">
         <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" t="s" s="0">
         <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" t="s" s="0">
         <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" t="s" s="0">
         <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" t="s" s="0">
         <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" t="s" s="0">
         <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" t="s" s="0">
         <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="A208" t="s" s="0">
         <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" t="s" s="0">
         <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="A210" t="s" s="0">
         <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="A211" t="s" s="0">
         <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212" t="s" s="0">
         <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" t="s" s="0">
         <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="A214" t="s" s="0">
         <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="A215" t="s" s="0">
         <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="A216" t="s" s="0">
         <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="A217" t="s" s="0">
         <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="A218" t="s" s="0">
         <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="A219" t="s" s="0">
         <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="A220" t="s" s="0">
         <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="A221" t="s" s="0">
         <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="A222" t="s" s="0">
         <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="A223" t="s" s="0">
         <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="A224" t="s" s="0">
         <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="A225" t="s" s="0">
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="A226" t="s" s="0">
         <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="A227" t="s" s="0">
         <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="A228" t="s" s="0">
         <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="A229" t="s" s="0">
         <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="A230" t="s" s="0">
         <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="A231" t="s" s="0">
         <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="A232" t="s" s="0">
         <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="A233" t="s" s="0">
         <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="A234" t="s" s="0">
         <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="A235" t="s" s="0">
         <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="A236" t="s" s="0">
         <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="A237" t="s" s="0">
         <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="A238" t="s" s="0">
         <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="A239" t="s" s="0">
         <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="A240" t="s" s="0">
         <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="A241" t="s" s="0">
         <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="A242" t="s" s="0">
         <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="A243" t="s" s="0">
         <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="A244" t="s" s="0">
         <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="A245" t="s" s="0">
         <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="A246" t="s" s="0">
         <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="A247" t="s" s="0">
         <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="A248" t="s" s="0">
         <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="A249" t="s" s="0">
         <v>248</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="0">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:A250"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="E242" sqref="E242"/>
+      <selection activeCell="O244" sqref="O244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljevica-marka/637d05681adea1f4a70d45ad</t>
   </si>
@@ -761,16 +761,12 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/mise-dimitrijevica/6339fa175936bf895b08c5c1</t>
-  </si>
-  <si>
-    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/centar-novi-sad/63aec8a12562e3893a016eb4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1106,1262 +1102,1257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A250"/>
+  <dimension ref="A1:A249"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="O244" sqref="O244"/>
+      <selection activeCell="M239" sqref="M239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s" s="0">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s" s="0">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s" s="0">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s" s="0">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s" s="0">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s" s="0">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s" s="0">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s" s="0">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s" s="0">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s" s="0">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s" s="0">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s" s="0">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s" s="0">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s" s="0">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s" s="0">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s" s="0">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s" s="0">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s" s="0">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s" s="0">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s" s="0">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s" s="0">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s" s="0">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s" s="0">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s" s="0">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s" s="0">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s" s="0">
+      <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s" s="0">
+      <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s" s="0">
+      <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s" s="0">
+      <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s" s="0">
+      <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s" s="0">
+      <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s" s="0">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s" s="0">
+      <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s" s="0">
+      <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s" s="0">
+      <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s" s="0">
+      <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s" s="0">
+      <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s" s="0">
+      <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s" s="0">
+      <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s" s="0">
+      <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s" s="0">
+      <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s" s="0">
+      <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s" s="0">
+      <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s" s="0">
+      <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s" s="0">
+      <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s" s="0">
+      <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s" s="0">
+      <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s" s="0">
+      <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s" s="0">
+      <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s" s="0">
+      <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s" s="0">
+      <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s" s="0">
+      <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s" s="0">
+      <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s" s="0">
+      <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s" s="0">
+      <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s" s="0">
+      <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s" s="0">
+      <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s" s="0">
+      <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s" s="0">
+      <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s" s="0">
+      <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s" s="0">
+      <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s" s="0">
+      <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s" s="0">
+      <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s" s="0">
+      <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s" s="0">
+      <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s" s="0">
+      <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s" s="0">
+      <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s" s="0">
+      <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s" s="0">
+      <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s" s="0">
+      <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s" s="0">
+      <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s" s="0">
+      <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s" s="0">
+      <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s" s="0">
+      <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s" s="0">
+      <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s" s="0">
+      <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s" s="0">
+      <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s" s="0">
+      <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s" s="0">
+      <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s" s="0">
+      <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s" s="0">
+      <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s" s="0">
+      <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s" s="0">
+      <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s" s="0">
+      <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s" s="0">
+      <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s" s="0">
+      <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s" s="0">
+      <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s" s="0">
+      <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s" s="0">
+      <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s" s="0">
+      <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s" s="0">
+      <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s" s="0">
+      <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s" s="0">
+      <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s" s="0">
+      <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s" s="0">
+      <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s" s="0">
+      <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s" s="0">
+      <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s" s="0">
+      <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s" s="0">
+      <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s" s="0">
+      <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s" s="0">
+      <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s" s="0">
+      <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s" s="0">
+      <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s" s="0">
+      <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s" s="0">
+      <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s" s="0">
+      <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s" s="0">
+      <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s" s="0">
+      <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s" s="0">
+      <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s" s="0">
+      <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s" s="0">
+      <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s" s="0">
+      <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s" s="0">
+      <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s" s="0">
+      <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s" s="0">
+      <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s" s="0">
+      <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s" s="0">
+      <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s" s="0">
+      <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s" s="0">
+      <c r="A146" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s" s="0">
+      <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s" s="0">
+      <c r="A148" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s" s="0">
+      <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s" s="0">
+      <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s" s="0">
+      <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s" s="0">
+      <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s" s="0">
+      <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s" s="0">
+      <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s" s="0">
+      <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s" s="0">
+      <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s" s="0">
+      <c r="A157" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s" s="0">
+      <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s" s="0">
+      <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s" s="0">
+      <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s" s="0">
+      <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s" s="0">
+      <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s" s="0">
+      <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s" s="0">
+      <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s" s="0">
+      <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s" s="0">
+      <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s" s="0">
+      <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s" s="0">
+      <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s" s="0">
+      <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s" s="0">
+      <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s" s="0">
+      <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s" s="0">
+      <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s" s="0">
+      <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s" s="0">
+      <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s" s="0">
+      <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s" s="0">
+      <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s" s="0">
+      <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s" s="0">
+      <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s" s="0">
+      <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s" s="0">
+      <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s" s="0">
+      <c r="A181" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s" s="0">
+      <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s" s="0">
+      <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s" s="0">
+      <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s" s="0">
+      <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s" s="0">
+      <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s" s="0">
+      <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s" s="0">
+      <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s" s="0">
+      <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s" s="0">
+      <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s" s="0">
+      <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s" s="0">
+      <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s" s="0">
+      <c r="A193" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s" s="0">
+      <c r="A194" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s" s="0">
+      <c r="A195" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s" s="0">
+      <c r="A196" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s" s="0">
+      <c r="A197" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s" s="0">
+      <c r="A198" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s" s="0">
+      <c r="A199" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s" s="0">
+      <c r="A200" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s" s="0">
+      <c r="A201" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s" s="0">
+      <c r="A202" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s" s="0">
+      <c r="A203" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s" s="0">
+      <c r="A204" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s" s="0">
+      <c r="A205" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s" s="0">
+      <c r="A206" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s" s="0">
+      <c r="A207" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s" s="0">
+      <c r="A208" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s" s="0">
+      <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s" s="0">
+      <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s" s="0">
+      <c r="A211" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s" s="0">
+      <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s" s="0">
+      <c r="A213" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s" s="0">
+      <c r="A214" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s" s="0">
+      <c r="A215" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s" s="0">
+      <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s" s="0">
+      <c r="A217" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s" s="0">
+      <c r="A218" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s" s="0">
+      <c r="A219" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s" s="0">
+      <c r="A220" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s" s="0">
+      <c r="A221" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s" s="0">
+      <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s" s="0">
+      <c r="A223" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s" s="0">
+      <c r="A224" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s" s="0">
+      <c r="A225" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s" s="0">
+      <c r="A226" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s" s="0">
+      <c r="A227" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s" s="0">
+      <c r="A228" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s" s="0">
+      <c r="A229" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s" s="0">
+      <c r="A230" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s" s="0">
+      <c r="A231" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s" s="0">
+      <c r="A232" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s" s="0">
+      <c r="A233" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s" s="0">
+      <c r="A234" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s" s="0">
+      <c r="A235" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s" s="0">
+      <c r="A236" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s" s="0">
+      <c r="A237" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s" s="0">
+      <c r="A238" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s" s="0">
+      <c r="A239" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s" s="0">
+      <c r="A240" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s" s="0">
+      <c r="A241" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s" s="0">
+      <c r="A242" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s" s="0">
+      <c r="A243" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s" s="0">
+      <c r="A244" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s" s="0">
+      <c r="A245" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s" s="0">
+      <c r="A246" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s" s="0">
+      <c r="A247" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s" s="0">
+      <c r="A248" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s" s="0">
+      <c r="A249" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s" s="0">
-        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljevica-marka/637d05681adea1f4a70d45ad</t>
   </si>
@@ -761,12 +761,19 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/mise-dimitrijevica/6339fa175936bf895b08c5c1</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara/63b20e89aa6d29274001a1f9</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/centar-novi-sad/63aec8a12562e3893a016eb4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1102,7 +1109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A249"/>
+  <dimension ref="A1:A251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
       <selection activeCell="M239" sqref="M239"/>
@@ -1111,1248 +1118,1258 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" t="s" s="0">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" t="s" s="0">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" t="s" s="0">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" t="s" s="0">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" t="s" s="0">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" t="s" s="0">
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" t="s" s="0">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" t="s" s="0">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" t="s" s="0">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" t="s" s="0">
         <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" t="s" s="0">
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" t="s" s="0">
         <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" t="s" s="0">
         <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" t="s" s="0">
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" t="s" s="0">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" t="s" s="0">
         <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" t="s" s="0">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" t="s" s="0">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" t="s" s="0">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" t="s" s="0">
         <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" t="s" s="0">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" t="s" s="0">
         <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" t="s" s="0">
         <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" t="s" s="0">
         <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" t="s" s="0">
         <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" t="s" s="0">
         <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" t="s" s="0">
         <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" t="s" s="0">
         <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" t="s" s="0">
         <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" t="s" s="0">
         <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" t="s" s="0">
         <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" t="s" s="0">
         <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" t="s" s="0">
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" t="s" s="0">
         <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" t="s" s="0">
         <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" t="s" s="0">
         <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" t="s" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" t="s" s="0">
         <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" t="s" s="0">
         <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" t="s" s="0">
         <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" t="s" s="0">
         <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" t="s" s="0">
         <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" t="s" s="0">
         <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" t="s" s="0">
         <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" t="s" s="0">
         <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" t="s" s="0">
         <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" t="s" s="0">
         <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" t="s" s="0">
         <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" t="s" s="0">
         <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" t="s" s="0">
         <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" t="s" s="0">
         <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156" t="s" s="0">
         <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" t="s" s="0">
         <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" t="s" s="0">
         <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" t="s" s="0">
         <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" t="s" s="0">
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" t="s" s="0">
         <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" t="s" s="0">
         <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" t="s" s="0">
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" t="s" s="0">
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" t="s" s="0">
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" t="s" s="0">
         <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="A167" t="s" s="0">
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168" t="s" s="0">
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" t="s" s="0">
         <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" t="s" s="0">
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" t="s" s="0">
         <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" t="s" s="0">
         <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" t="s" s="0">
         <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" t="s" s="0">
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" t="s" s="0">
         <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176" t="s" s="0">
         <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" t="s" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178" t="s" s="0">
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" t="s" s="0">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" t="s" s="0">
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181" t="s" s="0">
         <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" t="s" s="0">
         <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" t="s" s="0">
         <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184" t="s" s="0">
         <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" t="s" s="0">
         <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" t="s" s="0">
         <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" t="s" s="0">
         <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" t="s" s="0">
         <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" t="s" s="0">
         <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" t="s" s="0">
         <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191" t="s" s="0">
         <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192" t="s" s="0">
         <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" t="s" s="0">
         <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" t="s" s="0">
         <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195" t="s" s="0">
         <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" t="s" s="0">
         <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" t="s" s="0">
         <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" t="s" s="0">
         <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" t="s" s="0">
         <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" t="s" s="0">
         <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" t="s" s="0">
         <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" t="s" s="0">
         <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" t="s" s="0">
         <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" t="s" s="0">
         <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" t="s" s="0">
         <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" t="s" s="0">
         <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" t="s" s="0">
         <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="A208" t="s" s="0">
         <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" t="s" s="0">
         <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="A210" t="s" s="0">
         <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="A211" t="s" s="0">
         <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212" t="s" s="0">
         <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" t="s" s="0">
         <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="A214" t="s" s="0">
         <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="A215" t="s" s="0">
         <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="A216" t="s" s="0">
         <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="A217" t="s" s="0">
         <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="A218" t="s" s="0">
         <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="A219" t="s" s="0">
         <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="A220" t="s" s="0">
         <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="A221" t="s" s="0">
         <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="A222" t="s" s="0">
         <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="A223" t="s" s="0">
         <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="A224" t="s" s="0">
         <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="A225" t="s" s="0">
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="A226" t="s" s="0">
         <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="A227" t="s" s="0">
         <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="A228" t="s" s="0">
         <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="A229" t="s" s="0">
         <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="A230" t="s" s="0">
         <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="A231" t="s" s="0">
         <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="A232" t="s" s="0">
         <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="A233" t="s" s="0">
         <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="A234" t="s" s="0">
         <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="A235" t="s" s="0">
         <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="A236" t="s" s="0">
         <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="A237" t="s" s="0">
         <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="A238" t="s" s="0">
         <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="A239" t="s" s="0">
         <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="A240" t="s" s="0">
         <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="A241" t="s" s="0">
         <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="A242" t="s" s="0">
         <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="A243" t="s" s="0">
         <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="A244" t="s" s="0">
         <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="A245" t="s" s="0">
         <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="A246" t="s" s="0">
         <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="A247" t="s" s="0">
         <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="A248" t="s" s="0">
         <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="A249" t="s" s="0">
         <v>248</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="0">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="0">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljevica-marka/637d05681adea1f4a70d45ad</t>
   </si>
@@ -700,6 +700,18 @@
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara/63ac2a270d6db319d702b574</t>
   </si>
   <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/cankareva/63b2ee9fb65028de5608665f</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/liman-4-novi-sad/63aec89f2562e3893a016eb1</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novo-naselje/63aec0a83c109c18d20bbe5a</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara/63aeb4ae568241ab88032ed5</t>
+  </si>
+  <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-oslobodjenja/63ac44313036173803099566</t>
   </si>
   <si>
@@ -709,71 +721,22 @@
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/gunduliceva/63a45a77d20f9e794102a92a</t>
   </si>
   <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novo-naselje/63aedb599b08bc373508ac6a</t>
+  </si>
+  <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/telep/63ad8a1e40c4f3781a04c17e</t>
   </si>
   <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/mise-dimitrijevica/6339fa175936bf895b08c5c1</t>
+  </si>
+  <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/socijalno/63ac37f0413a0420b701da8c</t>
-  </si>
-  <si>
-    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/dr-djure-jovanovica-kindera/63adbf9eb3fd2529f50c7b0f</t>
-  </si>
-  <si>
-    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/orlovica-pavla/63ad4856a0d52c220708a286</t>
-  </si>
-  <si>
-    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-oslobodjenja/63ac3671413a0420b701d9f2</t>
-  </si>
-  <si>
-    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/majevicka/63ac739f3240cb1363067cae</t>
-  </si>
-  <si>
-    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/petra-drapsina/63ab591ab76016982f01339a</t>
-  </si>
-  <si>
-    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/liman-4/63adb385d4256f04380c1245</t>
-  </si>
-  <si>
-    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/grbavica-novi-sad/63ac961fb65bd1bae40c0ffa</t>
-  </si>
-  <si>
-    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/djurdja-brankovica-10/63ae1e88c1c503f48e0f6c41</t>
-  </si>
-  <si>
-    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/ilije-bircanina/63adeeb282a8172bae02daff</t>
-  </si>
-  <si>
-    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/janka-cmelika/63aebcb1568241ab88032f6d</t>
-  </si>
-  <si>
-    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novo-naselje/63aec0a83c109c18d20bbe5a</t>
-  </si>
-  <si>
-    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novi-sad-centar/63aee98af6dcb2da2701e68e</t>
-  </si>
-  <si>
-    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novo-naselje/63aedb599b08bc373508ac6a</t>
-  </si>
-  <si>
-    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara/63aeb4ae568241ab88032ed5</t>
-  </si>
-  <si>
-    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/liman-4-novi-sad/63aec89f2562e3893a016eb1</t>
-  </si>
-  <si>
-    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/mise-dimitrijevica/6339fa175936bf895b08c5c1</t>
-  </si>
-  <si>
-    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara/63b20e89aa6d29274001a1f9</t>
-  </si>
-  <si>
-    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/centar-novi-sad/63aec8a12562e3893a016eb4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1109,1267 +1072,1207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A251"/>
+  <dimension ref="A1:A239"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="M239" sqref="M239"/>
+      <selection activeCell="L243" sqref="L243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s" s="0">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s" s="0">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s" s="0">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s" s="0">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s" s="0">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s" s="0">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s" s="0">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s" s="0">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s" s="0">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s" s="0">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s" s="0">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s" s="0">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s" s="0">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s" s="0">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s" s="0">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s" s="0">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s" s="0">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s" s="0">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s" s="0">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s" s="0">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s" s="0">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s" s="0">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s" s="0">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s" s="0">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s" s="0">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s" s="0">
+      <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s" s="0">
+      <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s" s="0">
+      <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s" s="0">
+      <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s" s="0">
+      <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s" s="0">
+      <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s" s="0">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s" s="0">
+      <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s" s="0">
+      <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s" s="0">
+      <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s" s="0">
+      <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s" s="0">
+      <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s" s="0">
+      <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s" s="0">
+      <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s" s="0">
+      <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s" s="0">
+      <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s" s="0">
+      <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s" s="0">
+      <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s" s="0">
+      <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s" s="0">
+      <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s" s="0">
+      <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s" s="0">
+      <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s" s="0">
+      <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s" s="0">
+      <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s" s="0">
+      <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s" s="0">
+      <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s" s="0">
+      <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s" s="0">
+      <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s" s="0">
+      <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s" s="0">
+      <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s" s="0">
+      <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s" s="0">
+      <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s" s="0">
+      <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s" s="0">
+      <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s" s="0">
+      <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s" s="0">
+      <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s" s="0">
+      <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s" s="0">
+      <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s" s="0">
+      <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s" s="0">
+      <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s" s="0">
+      <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s" s="0">
+      <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s" s="0">
+      <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s" s="0">
+      <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s" s="0">
+      <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s" s="0">
+      <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s" s="0">
+      <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s" s="0">
+      <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s" s="0">
+      <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s" s="0">
+      <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s" s="0">
+      <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s" s="0">
+      <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s" s="0">
+      <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s" s="0">
+      <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s" s="0">
+      <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s" s="0">
+      <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s" s="0">
+      <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s" s="0">
+      <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s" s="0">
+      <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s" s="0">
+      <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s" s="0">
+      <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s" s="0">
+      <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s" s="0">
+      <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s" s="0">
+      <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s" s="0">
+      <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s" s="0">
+      <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s" s="0">
+      <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s" s="0">
+      <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s" s="0">
+      <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s" s="0">
+      <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s" s="0">
+      <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s" s="0">
+      <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s" s="0">
+      <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s" s="0">
+      <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s" s="0">
+      <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s" s="0">
+      <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s" s="0">
+      <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s" s="0">
+      <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s" s="0">
+      <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s" s="0">
+      <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s" s="0">
+      <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s" s="0">
+      <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s" s="0">
+      <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s" s="0">
+      <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s" s="0">
+      <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s" s="0">
+      <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s" s="0">
+      <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s" s="0">
+      <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s" s="0">
+      <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s" s="0">
+      <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s" s="0">
+      <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s" s="0">
+      <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s" s="0">
+      <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s" s="0">
+      <c r="A146" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s" s="0">
+      <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s" s="0">
+      <c r="A148" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s" s="0">
+      <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s" s="0">
+      <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s" s="0">
+      <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s" s="0">
+      <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s" s="0">
+      <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s" s="0">
+      <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s" s="0">
+      <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s" s="0">
+      <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s" s="0">
+      <c r="A157" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s" s="0">
+      <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s" s="0">
+      <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s" s="0">
+      <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s" s="0">
+      <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s" s="0">
+      <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s" s="0">
+      <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s" s="0">
+      <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s" s="0">
+      <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s" s="0">
+      <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s" s="0">
+      <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s" s="0">
+      <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s" s="0">
+      <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s" s="0">
+      <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s" s="0">
+      <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s" s="0">
+      <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s" s="0">
+      <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s" s="0">
+      <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s" s="0">
+      <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s" s="0">
+      <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s" s="0">
+      <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s" s="0">
+      <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s" s="0">
+      <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s" s="0">
+      <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s" s="0">
+      <c r="A181" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s" s="0">
+      <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s" s="0">
+      <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s" s="0">
+      <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s" s="0">
+      <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s" s="0">
+      <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s" s="0">
+      <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s" s="0">
+      <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s" s="0">
+      <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s" s="0">
+      <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s" s="0">
+      <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s" s="0">
+      <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s" s="0">
+      <c r="A193" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s" s="0">
+      <c r="A194" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s" s="0">
+      <c r="A195" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s" s="0">
+      <c r="A196" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s" s="0">
+      <c r="A197" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s" s="0">
+      <c r="A198" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s" s="0">
+      <c r="A199" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s" s="0">
+      <c r="A200" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s" s="0">
+      <c r="A201" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s" s="0">
+      <c r="A202" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s" s="0">
+      <c r="A203" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s" s="0">
+      <c r="A204" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s" s="0">
+      <c r="A205" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s" s="0">
+      <c r="A206" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s" s="0">
+      <c r="A207" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s" s="0">
+      <c r="A208" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s" s="0">
+      <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s" s="0">
+      <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s" s="0">
+      <c r="A211" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s" s="0">
+      <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s" s="0">
+      <c r="A213" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s" s="0">
+      <c r="A214" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s" s="0">
+      <c r="A215" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s" s="0">
+      <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s" s="0">
+      <c r="A217" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s" s="0">
+      <c r="A218" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s" s="0">
+      <c r="A219" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s" s="0">
+      <c r="A220" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s" s="0">
+      <c r="A221" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s" s="0">
+      <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s" s="0">
+      <c r="A223" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s" s="0">
+      <c r="A224" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s" s="0">
+      <c r="A225" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s" s="0">
+      <c r="A226" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s" s="0">
+      <c r="A227" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s" s="0">
+      <c r="A228" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s" s="0">
+      <c r="A229" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s" s="0">
+      <c r="A230" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s" s="0">
+      <c r="A231" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s" s="0">
+      <c r="A232" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s" s="0">
+      <c r="A233" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s" s="0">
+      <c r="A234" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s" s="0">
+      <c r="A235" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s" s="0">
+      <c r="A236" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s" s="0">
+      <c r="A237" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s" s="0">
+      <c r="A238" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s" s="0">
+      <c r="A239" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s" s="0">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s" s="0">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s" s="0">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s" s="0">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s" s="0">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s" s="0">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s" s="0">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s" s="0">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s" s="0">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s" s="0">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s" s="0">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s" s="0">
-        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljevica-marka/637d05681adea1f4a70d45ad</t>
   </si>
@@ -731,12 +731,46 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/socijalno/63ac37f0413a0420b701da8c</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/hadzic-svetic-12/63b3390989347ce492069593</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/dr-djure-jovanovica-kindera/63adbf9eb3fd2529f50c7b0f</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-oslobodjenja/63ac3671413a0420b701d9f2</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/majevicka/63ac739f3240cb1363067cae</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/petra-drapsina/63ab591ab76016982f01339a</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/liman-4/63adb385d4256f04380c1245</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/janka-cmelika/63aebcb1568241ab88032f6d</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novi-sad-centar/63aee98af6dcb2da2701e68e</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/djurdja-brankovica-10/63ae1e88c1c503f48e0f6c41</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/ilije-bircanina/63adeeb282a8172bae02daff</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/centar-novi-sad/63aec8a12562e3893a016eb4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1072,7 +1106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A239"/>
+  <dimension ref="A1:A250"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
       <selection activeCell="L243" sqref="L243"/>
@@ -1081,1198 +1115,1253 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" t="s" s="0">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" t="s" s="0">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" t="s" s="0">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" t="s" s="0">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" t="s" s="0">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" t="s" s="0">
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" t="s" s="0">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" t="s" s="0">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" t="s" s="0">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" t="s" s="0">
         <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" t="s" s="0">
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" t="s" s="0">
         <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" t="s" s="0">
         <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" t="s" s="0">
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" t="s" s="0">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" t="s" s="0">
         <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" t="s" s="0">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" t="s" s="0">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" t="s" s="0">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" t="s" s="0">
         <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" t="s" s="0">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" t="s" s="0">
         <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" t="s" s="0">
         <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" t="s" s="0">
         <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" t="s" s="0">
         <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" t="s" s="0">
         <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" t="s" s="0">
         <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" t="s" s="0">
         <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" t="s" s="0">
         <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" t="s" s="0">
         <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" t="s" s="0">
         <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" t="s" s="0">
         <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" t="s" s="0">
         <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" t="s" s="0">
         <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" t="s" s="0">
         <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" t="s" s="0">
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" t="s" s="0">
         <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" t="s" s="0">
         <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" t="s" s="0">
         <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" t="s" s="0">
         <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" t="s" s="0">
         <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" t="s" s="0">
         <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" t="s" s="0">
         <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" t="s" s="0">
         <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" t="s" s="0">
         <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" t="s" s="0">
         <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" t="s" s="0">
         <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" t="s" s="0">
         <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" t="s" s="0">
         <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" t="s" s="0">
         <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" t="s" s="0">
         <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" t="s" s="0">
         <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" t="s" s="0">
         <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" t="s" s="0">
         <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156" t="s" s="0">
         <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" t="s" s="0">
         <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" t="s" s="0">
         <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" t="s" s="0">
         <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" t="s" s="0">
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" t="s" s="0">
         <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" t="s" s="0">
         <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" t="s" s="0">
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" t="s" s="0">
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" t="s" s="0">
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" t="s" s="0">
         <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="A167" t="s" s="0">
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168" t="s" s="0">
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" t="s" s="0">
         <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" t="s" s="0">
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" t="s" s="0">
         <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" t="s" s="0">
         <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" t="s" s="0">
         <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" t="s" s="0">
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" t="s" s="0">
         <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176" t="s" s="0">
         <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" t="s" s="0">
         <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178" t="s" s="0">
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" t="s" s="0">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" t="s" s="0">
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181" t="s" s="0">
         <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" t="s" s="0">
         <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" t="s" s="0">
         <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184" t="s" s="0">
         <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" t="s" s="0">
         <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" t="s" s="0">
         <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" t="s" s="0">
         <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" t="s" s="0">
         <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" t="s" s="0">
         <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" t="s" s="0">
         <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191" t="s" s="0">
         <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192" t="s" s="0">
         <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" t="s" s="0">
         <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" t="s" s="0">
         <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195" t="s" s="0">
         <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" t="s" s="0">
         <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" t="s" s="0">
         <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" t="s" s="0">
         <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" t="s" s="0">
         <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" t="s" s="0">
         <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" t="s" s="0">
         <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" t="s" s="0">
         <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" t="s" s="0">
         <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" t="s" s="0">
         <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" t="s" s="0">
         <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" t="s" s="0">
         <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" t="s" s="0">
         <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="A208" t="s" s="0">
         <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" t="s" s="0">
         <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="A210" t="s" s="0">
         <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="A211" t="s" s="0">
         <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212" t="s" s="0">
         <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" t="s" s="0">
         <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="A214" t="s" s="0">
         <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="A215" t="s" s="0">
         <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="A216" t="s" s="0">
         <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="A217" t="s" s="0">
         <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="A218" t="s" s="0">
         <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="A219" t="s" s="0">
         <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="A220" t="s" s="0">
         <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="A221" t="s" s="0">
         <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="A222" t="s" s="0">
         <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="A223" t="s" s="0">
         <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="A224" t="s" s="0">
         <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="A225" t="s" s="0">
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="A226" t="s" s="0">
         <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="A227" t="s" s="0">
         <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="A228" t="s" s="0">
         <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="A229" t="s" s="0">
         <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="A230" t="s" s="0">
         <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="A231" t="s" s="0">
         <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="A232" t="s" s="0">
         <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="A233" t="s" s="0">
         <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="A234" t="s" s="0">
         <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="A235" t="s" s="0">
         <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="A236" t="s" s="0">
         <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="A237" t="s" s="0">
         <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="A238" t="s" s="0">
         <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="A239" t="s" s="0">
         <v>238</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="0">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="0">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="0">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="0">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="0">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="0">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljevica-marka/637d05681adea1f4a70d45ad</t>
   </si>
@@ -764,6 +764,12 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/centar-novi-sad/63aec8a12562e3893a016eb4</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novi-sad-centar/63947a39e0c0f5cd0302d49d</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/sajmiste/63b4116c17d9478c380ce171</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A250"/>
+  <dimension ref="A1:A252"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
       <selection activeCell="L243" sqref="L243"/>
@@ -2364,6 +2370,16 @@
         <v>249</v>
       </c>
     </row>
+    <row r="251">
+      <c r="A251" t="s" s="0">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljevica-marka/637d05681adea1f4a70d45ad</t>
   </si>
@@ -770,6 +770,9 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/sajmiste/63b4116c17d9478c380ce171</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara/63ab10f12bf1f7b6b005379d</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A252"/>
+  <dimension ref="A1:A253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
       <selection activeCell="L243" sqref="L243"/>
@@ -2380,6 +2383,11 @@
         <v>251</v>
       </c>
     </row>
+    <row r="253">
+      <c r="A253" t="s" s="0">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljevica-marka/637d05681adea1f4a70d45ad</t>
   </si>
@@ -773,6 +773,27 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara/63ab10f12bf1f7b6b005379d</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/valentina-vodnika/63b53abfc9dcf8ba6d06c4d1</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljev-park/63b575e5e341deda4e0833f8</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-oslobodjenja/63b57ea4217cef88bb058a9a</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novo-naselje/63b53cd3b2a093ef7b0d5bf2</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novi-sad-centar/63b57187f6219895b10d007f</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novo-naselje/63b57ea3217cef88bb058a97</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-evrope/626e9d4b2f0bf25f192c7ec3</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A253"/>
+  <dimension ref="A1:A260"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
       <selection activeCell="L243" sqref="L243"/>
@@ -2388,6 +2409,41 @@
         <v>252</v>
       </c>
     </row>
+    <row r="254">
+      <c r="A254" t="s" s="0">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="0">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="0">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="0">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="0">
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljevica-marka/637d05681adea1f4a70d45ad</t>
   </si>
@@ -794,6 +794,21 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-evrope/626e9d4b2f0bf25f192c7ec3</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/pavla-papa/63b5b602c6a8d21f390a3653</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/joakima-vujica/63b5b5ffc6a8d21f390a364a</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/cirpanova/63b5b5f8c6a8d21f390a363e</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/hadzic-svetica/63b5b603c6a8d21f390a3656</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kosancic-ivana/63b5b600c6a8d21f390a364d</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A260"/>
+  <dimension ref="A1:A265"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
       <selection activeCell="L243" sqref="L243"/>
@@ -2444,6 +2459,31 @@
         <v>259</v>
       </c>
     </row>
+    <row r="261">
+      <c r="A261" t="s" s="0">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="0">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="0">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="0">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljevica-marka/637d05681adea1f4a70d45ad</t>
   </si>
@@ -809,6 +809,18 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kosancic-ivana/63b5b600c6a8d21f390a364d</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-patrijarha-pavla/63b60a421c40a8803f0338aa</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-evrope/63b60a451c40a8803f0338b3</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/doza-djerdja/63b60a431c40a8803f0338ad</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/ilije-bircanina/63b60a461c40a8803f0338b6</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1163,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A265"/>
+  <dimension ref="A1:A269"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
       <selection activeCell="L243" sqref="L243"/>
@@ -2484,6 +2496,26 @@
         <v>264</v>
       </c>
     </row>
+    <row r="266">
+      <c r="A266" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="0">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljevica-marka/637d05681adea1f4a70d45ad</t>
   </si>
@@ -821,6 +821,15 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/ilije-bircanina/63b60a461c40a8803f0338b6</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/ibarska/63b6d668d48ff2331805e433</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/avijaticarsko-naselje/63b6dea0a2a3e526c80f3474</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-evrope-20/63b6ad269fe19086360fc8c6</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1172,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A269"/>
+  <dimension ref="A1:A272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
       <selection activeCell="L243" sqref="L243"/>
@@ -2516,6 +2525,21 @@
         <v>268</v>
       </c>
     </row>
+    <row r="270">
+      <c r="A270" t="s" s="0">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="0">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljevica-marka/637d05681adea1f4a70d45ad</t>
   </si>
@@ -830,6 +830,15 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-evrope-20/63b6ad269fe19086360fc8c6</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/grbavica/63b7181a0bb7223c9e0d5af0</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-oslobodjenja/63af2058fa4a4078c00aea08</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/detelinara/63b716700bb7223c9e0d5a38</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A272"/>
+  <dimension ref="A1:A275"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
       <selection activeCell="L243" sqref="L243"/>
@@ -2540,6 +2549,21 @@
         <v>271</v>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" t="s" s="0">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="0">
+        <v>274</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljevica-marka/637d05681adea1f4a70d45ad</t>
   </si>
@@ -839,6 +839,9 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/detelinara/63b716700bb7223c9e0d5a38</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara-novi-sad/63a5aa39939557cbbb09d6a5</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A275"/>
+  <dimension ref="A1:A276"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
       <selection activeCell="L243" sqref="L243"/>
@@ -2564,6 +2567,11 @@
         <v>274</v>
       </c>
     </row>
+    <row r="276">
+      <c r="A276" t="s" s="0">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljevica-marka/637d05681adea1f4a70d45ad</t>
   </si>
@@ -842,6 +842,12 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara-novi-sad/63a5aa39939557cbbb09d6a5</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/somborska/6363db312b6666fbda0a8546</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-jovana-ducica/63b95a37543041867e0f098a</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A276"/>
+  <dimension ref="A1:A278"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
       <selection activeCell="L243" sqref="L243"/>
@@ -2572,6 +2578,16 @@
         <v>275</v>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="0">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljevica-marka/637d05681adea1f4a70d45ad</t>
   </si>
@@ -848,6 +848,9 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-jovana-ducica/63b95a37543041867e0f098a</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara/63ba9be1c32577311a078208</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A278"/>
+  <dimension ref="A1:A279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
       <selection activeCell="L243" sqref="L243"/>
@@ -2588,6 +2591,11 @@
         <v>277</v>
       </c>
     </row>
+    <row r="279">
+      <c r="A279" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="213">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1006,1599 +1006,1599 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="118" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="118.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" t="s" s="0">
         <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" t="s" s="0">
         <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" t="s" s="0">
         <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" t="s" s="0">
         <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" t="s" s="0">
         <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" t="s" s="0">
         <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" t="s" s="0">
         <v>79</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" t="s" s="0">
         <v>32</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" t="s" s="0">
         <v>79</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" t="s" s="0">
         <v>169</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="A167" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" t="s" s="0">
         <v>93</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" t="s" s="0">
         <v>198</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" t="s" s="0">
         <v>199</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" t="s" s="0">
         <v>200</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" t="s" s="0">
         <v>206</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" t="s" s="0">
         <v>207</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195" t="s" s="0">
         <v>208</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" t="s" s="0">
         <v>210</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" t="s" s="0">
         <v>211</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="199">
+      <c r="A199" t="s" s="0">
         <v>212</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>35</v>
+      <c r="B199" t="s" s="0">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="213">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1001,1604 +1001,1604 @@
   <dimension ref="A1:B199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="E190" sqref="E190:F191"/>
+      <selection activeCell="A203" sqref="A203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="118.0"/>
+    <col min="1" max="1" width="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="B21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s" s="0">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="B23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s" s="0">
+      <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="B24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s" s="0">
+      <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s" s="0">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="B26" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s" s="0">
+      <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="B27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s" s="0">
+      <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="B28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s" s="0">
+      <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="B29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s" s="0">
+      <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="B30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s" s="0">
+      <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="B31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s" s="0">
+      <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="B32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s" s="0">
+      <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="B33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s" s="0">
+      <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="B34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s" s="0">
+      <c r="A35" t="s">
         <v>43</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="B35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s" s="0">
+      <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="B36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s" s="0">
+      <c r="A37" t="s">
         <v>45</v>
       </c>
-      <c r="B37" t="s" s="0">
+      <c r="B37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s" s="0">
+      <c r="A38" t="s">
         <v>46</v>
       </c>
-      <c r="B38" t="s" s="0">
+      <c r="B38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s" s="0">
+      <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="B39" t="s" s="0">
+      <c r="B39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s" s="0">
+      <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="B40" t="s" s="0">
+      <c r="B40" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s" s="0">
+      <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="B41" t="s" s="0">
+      <c r="B41" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s" s="0">
+      <c r="A42" t="s">
         <v>50</v>
       </c>
-      <c r="B42" t="s" s="0">
+      <c r="B42" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s" s="0">
+      <c r="A43" t="s">
         <v>51</v>
       </c>
-      <c r="B43" t="s" s="0">
+      <c r="B43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s" s="0">
+      <c r="A44" t="s">
         <v>52</v>
       </c>
-      <c r="B44" t="s" s="0">
+      <c r="B44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s" s="0">
+      <c r="A45" t="s">
         <v>53</v>
       </c>
-      <c r="B45" t="s" s="0">
+      <c r="B45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s" s="0">
+      <c r="A46" t="s">
         <v>55</v>
       </c>
-      <c r="B46" t="s" s="0">
+      <c r="B46" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s" s="0">
+      <c r="A47" t="s">
         <v>56</v>
       </c>
-      <c r="B47" t="s" s="0">
+      <c r="B47" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s" s="0">
+      <c r="A48" t="s">
         <v>57</v>
       </c>
-      <c r="B48" t="s" s="0">
+      <c r="B48" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s" s="0">
+      <c r="A49" t="s">
         <v>58</v>
       </c>
-      <c r="B49" t="s" s="0">
+      <c r="B49" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s" s="0">
+      <c r="A50" t="s">
         <v>60</v>
       </c>
-      <c r="B50" t="s" s="0">
+      <c r="B50" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s" s="0">
+      <c r="A51" t="s">
         <v>61</v>
       </c>
-      <c r="B51" t="s" s="0">
+      <c r="B51" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s" s="0">
+      <c r="A52" t="s">
         <v>62</v>
       </c>
-      <c r="B52" t="s" s="0">
+      <c r="B52" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s" s="0">
+      <c r="A53" t="s">
         <v>63</v>
       </c>
-      <c r="B53" t="s" s="0">
+      <c r="B53" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s" s="0">
+      <c r="A54" t="s">
         <v>64</v>
       </c>
-      <c r="B54" t="s" s="0">
+      <c r="B54" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s" s="0">
+      <c r="A55" t="s">
         <v>65</v>
       </c>
-      <c r="B55" t="s" s="0">
+      <c r="B55" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s" s="0">
+      <c r="A56" t="s">
         <v>66</v>
       </c>
-      <c r="B56" t="s" s="0">
+      <c r="B56" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s" s="0">
+      <c r="A57" t="s">
         <v>67</v>
       </c>
-      <c r="B57" t="s" s="0">
+      <c r="B57" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s" s="0">
+      <c r="A58" t="s">
         <v>68</v>
       </c>
-      <c r="B58" t="s" s="0">
+      <c r="B58" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s" s="0">
+      <c r="A59" t="s">
         <v>69</v>
       </c>
-      <c r="B59" t="s" s="0">
+      <c r="B59" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s" s="0">
+      <c r="A60" t="s">
         <v>70</v>
       </c>
-      <c r="B60" t="s" s="0">
+      <c r="B60" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s" s="0">
+      <c r="A61" t="s">
         <v>71</v>
       </c>
-      <c r="B61" t="s" s="0">
+      <c r="B61" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s" s="0">
+      <c r="A62" t="s">
         <v>72</v>
       </c>
-      <c r="B62" t="s" s="0">
+      <c r="B62" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s" s="0">
+      <c r="A63" t="s">
         <v>73</v>
       </c>
-      <c r="B63" t="s" s="0">
+      <c r="B63" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s" s="0">
+      <c r="A64" t="s">
         <v>74</v>
       </c>
-      <c r="B64" t="s" s="0">
+      <c r="B64" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s" s="0">
+      <c r="A65" t="s">
         <v>75</v>
       </c>
-      <c r="B65" t="s" s="0">
+      <c r="B65" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s" s="0">
+      <c r="A66" t="s">
         <v>76</v>
       </c>
-      <c r="B66" t="s" s="0">
+      <c r="B66" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s" s="0">
+      <c r="A67" t="s">
         <v>77</v>
       </c>
-      <c r="B67" t="s" s="0">
+      <c r="B67" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s" s="0">
+      <c r="A68" t="s">
         <v>78</v>
       </c>
-      <c r="B68" t="s" s="0">
+      <c r="B68" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s" s="0">
+      <c r="A69" t="s">
         <v>80</v>
       </c>
-      <c r="B69" t="s" s="0">
+      <c r="B69" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s" s="0">
+      <c r="A70" t="s">
         <v>81</v>
       </c>
-      <c r="B70" t="s" s="0">
+      <c r="B70" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s" s="0">
+      <c r="A71" t="s">
         <v>82</v>
       </c>
-      <c r="B71" t="s" s="0">
+      <c r="B71" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s" s="0">
+      <c r="A72" t="s">
         <v>83</v>
       </c>
-      <c r="B72" t="s" s="0">
+      <c r="B72" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s" s="0">
+      <c r="A73" t="s">
         <v>84</v>
       </c>
-      <c r="B73" t="s" s="0">
+      <c r="B73" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s" s="0">
+      <c r="A74" t="s">
         <v>85</v>
       </c>
-      <c r="B74" t="s" s="0">
+      <c r="B74" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s" s="0">
+      <c r="A75" t="s">
         <v>86</v>
       </c>
-      <c r="B75" t="s" s="0">
+      <c r="B75" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s" s="0">
+      <c r="A76" t="s">
         <v>87</v>
       </c>
-      <c r="B76" t="s" s="0">
+      <c r="B76" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s" s="0">
+      <c r="A77" t="s">
         <v>88</v>
       </c>
-      <c r="B77" t="s" s="0">
+      <c r="B77" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s" s="0">
+      <c r="A78" t="s">
         <v>89</v>
       </c>
-      <c r="B78" t="s" s="0">
+      <c r="B78" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s" s="0">
+      <c r="A79" t="s">
         <v>90</v>
       </c>
-      <c r="B79" t="s" s="0">
+      <c r="B79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s" s="0">
+      <c r="A80" t="s">
         <v>91</v>
       </c>
-      <c r="B80" t="s" s="0">
+      <c r="B80" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s" s="0">
+      <c r="A81" t="s">
         <v>92</v>
       </c>
-      <c r="B81" t="s" s="0">
+      <c r="B81" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s" s="0">
+      <c r="A82" t="s">
         <v>94</v>
       </c>
-      <c r="B82" t="s" s="0">
+      <c r="B82" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s" s="0">
+      <c r="A83" t="s">
         <v>95</v>
       </c>
-      <c r="B83" t="s" s="0">
+      <c r="B83" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s" s="0">
+      <c r="A84" t="s">
         <v>96</v>
       </c>
-      <c r="B84" t="s" s="0">
+      <c r="B84" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s" s="0">
+      <c r="A85" t="s">
         <v>97</v>
       </c>
-      <c r="B85" t="s" s="0">
+      <c r="B85" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s" s="0">
+      <c r="A86" t="s">
         <v>98</v>
       </c>
-      <c r="B86" t="s" s="0">
+      <c r="B86" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s" s="0">
+      <c r="A87" t="s">
         <v>99</v>
       </c>
-      <c r="B87" t="s" s="0">
+      <c r="B87" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s" s="0">
+      <c r="A88" t="s">
         <v>100</v>
       </c>
-      <c r="B88" t="s" s="0">
+      <c r="B88" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s" s="0">
+      <c r="A89" t="s">
         <v>101</v>
       </c>
-      <c r="B89" t="s" s="0">
+      <c r="B89" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s" s="0">
+      <c r="A90" t="s">
         <v>102</v>
       </c>
-      <c r="B90" t="s" s="0">
+      <c r="B90" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s" s="0">
+      <c r="A91" t="s">
         <v>103</v>
       </c>
-      <c r="B91" t="s" s="0">
+      <c r="B91" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s" s="0">
+      <c r="A92" t="s">
         <v>104</v>
       </c>
-      <c r="B92" t="s" s="0">
+      <c r="B92" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s" s="0">
+      <c r="A93" t="s">
         <v>105</v>
       </c>
-      <c r="B93" t="s" s="0">
+      <c r="B93" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s" s="0">
+      <c r="A94" t="s">
         <v>106</v>
       </c>
-      <c r="B94" t="s" s="0">
+      <c r="B94" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s" s="0">
+      <c r="A95" t="s">
         <v>107</v>
       </c>
-      <c r="B95" t="s" s="0">
+      <c r="B95" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s" s="0">
+      <c r="A96" t="s">
         <v>108</v>
       </c>
-      <c r="B96" t="s" s="0">
+      <c r="B96" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s" s="0">
+      <c r="A97" t="s">
         <v>109</v>
       </c>
-      <c r="B97" t="s" s="0">
+      <c r="B97" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s" s="0">
+      <c r="A98" t="s">
         <v>110</v>
       </c>
-      <c r="B98" t="s" s="0">
+      <c r="B98" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s" s="0">
+      <c r="A99" t="s">
         <v>111</v>
       </c>
-      <c r="B99" t="s" s="0">
+      <c r="B99" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s" s="0">
+      <c r="A100" t="s">
         <v>112</v>
       </c>
-      <c r="B100" t="s" s="0">
+      <c r="B100" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s" s="0">
+      <c r="A101" t="s">
         <v>113</v>
       </c>
-      <c r="B101" t="s" s="0">
+      <c r="B101" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s" s="0">
+      <c r="A102" t="s">
         <v>114</v>
       </c>
-      <c r="B102" t="s" s="0">
+      <c r="B102" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s" s="0">
+      <c r="A103" t="s">
         <v>115</v>
       </c>
-      <c r="B103" t="s" s="0">
+      <c r="B103" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s" s="0">
+      <c r="A104" t="s">
         <v>116</v>
       </c>
-      <c r="B104" t="s" s="0">
+      <c r="B104" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s" s="0">
+      <c r="A105" t="s">
         <v>117</v>
       </c>
-      <c r="B105" t="s" s="0">
+      <c r="B105" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s" s="0">
+      <c r="A106" t="s">
         <v>118</v>
       </c>
-      <c r="B106" t="s" s="0">
+      <c r="B106" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s" s="0">
+      <c r="A107" t="s">
         <v>119</v>
       </c>
-      <c r="B107" t="s" s="0">
+      <c r="B107" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s" s="0">
+      <c r="A108" t="s">
         <v>120</v>
       </c>
-      <c r="B108" t="s" s="0">
+      <c r="B108" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s" s="0">
+      <c r="A109" t="s">
         <v>121</v>
       </c>
-      <c r="B109" t="s" s="0">
+      <c r="B109" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s" s="0">
+      <c r="A110" t="s">
         <v>122</v>
       </c>
-      <c r="B110" t="s" s="0">
+      <c r="B110" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s" s="0">
+      <c r="A111" t="s">
         <v>123</v>
       </c>
-      <c r="B111" t="s" s="0">
+      <c r="B111" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s" s="0">
+      <c r="A112" t="s">
         <v>124</v>
       </c>
-      <c r="B112" t="s" s="0">
+      <c r="B112" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s" s="0">
+      <c r="A113" t="s">
         <v>125</v>
       </c>
-      <c r="B113" t="s" s="0">
+      <c r="B113" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s" s="0">
+      <c r="A114" t="s">
         <v>126</v>
       </c>
-      <c r="B114" t="s" s="0">
+      <c r="B114" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s" s="0">
+      <c r="A115" t="s">
         <v>127</v>
       </c>
-      <c r="B115" t="s" s="0">
+      <c r="B115" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s" s="0">
+      <c r="A116" t="s">
         <v>128</v>
       </c>
-      <c r="B116" t="s" s="0">
+      <c r="B116" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s" s="0">
+      <c r="A117" t="s">
         <v>129</v>
       </c>
-      <c r="B117" t="s" s="0">
+      <c r="B117" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s" s="0">
+      <c r="A118" t="s">
         <v>130</v>
       </c>
-      <c r="B118" t="s" s="0">
+      <c r="B118" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s" s="0">
+      <c r="A119" t="s">
         <v>131</v>
       </c>
-      <c r="B119" t="s" s="0">
+      <c r="B119" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s" s="0">
+      <c r="A120" t="s">
         <v>132</v>
       </c>
-      <c r="B120" t="s" s="0">
+      <c r="B120" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s" s="0">
+      <c r="A121" t="s">
         <v>133</v>
       </c>
-      <c r="B121" t="s" s="0">
+      <c r="B121" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s" s="0">
+      <c r="A122" t="s">
         <v>134</v>
       </c>
-      <c r="B122" t="s" s="0">
+      <c r="B122" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s" s="0">
+      <c r="A123" t="s">
         <v>135</v>
       </c>
-      <c r="B123" t="s" s="0">
+      <c r="B123" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s" s="0">
+      <c r="A124" t="s">
         <v>136</v>
       </c>
-      <c r="B124" t="s" s="0">
+      <c r="B124" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s" s="0">
+      <c r="A125" t="s">
         <v>137</v>
       </c>
-      <c r="B125" t="s" s="0">
+      <c r="B125" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s" s="0">
+      <c r="A126" t="s">
         <v>138</v>
       </c>
-      <c r="B126" t="s" s="0">
+      <c r="B126" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s" s="0">
+      <c r="A127" t="s">
         <v>139</v>
       </c>
-      <c r="B127" t="s" s="0">
+      <c r="B127" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s" s="0">
+      <c r="A128" t="s">
         <v>140</v>
       </c>
-      <c r="B128" t="s" s="0">
+      <c r="B128" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s" s="0">
+      <c r="A129" t="s">
         <v>141</v>
       </c>
-      <c r="B129" t="s" s="0">
+      <c r="B129" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s" s="0">
+      <c r="A130" t="s">
         <v>142</v>
       </c>
-      <c r="B130" t="s" s="0">
+      <c r="B130" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s" s="0">
+      <c r="A131" t="s">
         <v>143</v>
       </c>
-      <c r="B131" t="s" s="0">
+      <c r="B131" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s" s="0">
+      <c r="A132" t="s">
         <v>144</v>
       </c>
-      <c r="B132" t="s" s="0">
+      <c r="B132" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s" s="0">
+      <c r="A133" t="s">
         <v>145</v>
       </c>
-      <c r="B133" t="s" s="0">
+      <c r="B133" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s" s="0">
+      <c r="A134" t="s">
         <v>146</v>
       </c>
-      <c r="B134" t="s" s="0">
+      <c r="B134" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s" s="0">
+      <c r="A135" t="s">
         <v>147</v>
       </c>
-      <c r="B135" t="s" s="0">
+      <c r="B135" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s" s="0">
+      <c r="A136" t="s">
         <v>148</v>
       </c>
-      <c r="B136" t="s" s="0">
+      <c r="B136" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s" s="0">
+      <c r="A137" t="s">
         <v>149</v>
       </c>
-      <c r="B137" t="s" s="0">
+      <c r="B137" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s" s="0">
+      <c r="A138" t="s">
         <v>150</v>
       </c>
-      <c r="B138" t="s" s="0">
+      <c r="B138" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s" s="0">
+      <c r="A139" t="s">
         <v>151</v>
       </c>
-      <c r="B139" t="s" s="0">
+      <c r="B139" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s" s="0">
+      <c r="A140" t="s">
         <v>152</v>
       </c>
-      <c r="B140" t="s" s="0">
+      <c r="B140" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s" s="0">
+      <c r="A141" t="s">
         <v>153</v>
       </c>
-      <c r="B141" t="s" s="0">
+      <c r="B141" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s" s="0">
+      <c r="A142" t="s">
         <v>154</v>
       </c>
-      <c r="B142" t="s" s="0">
+      <c r="B142" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s" s="0">
+      <c r="A143" t="s">
         <v>155</v>
       </c>
-      <c r="B143" t="s" s="0">
+      <c r="B143" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s" s="0">
+      <c r="A144" t="s">
         <v>156</v>
       </c>
-      <c r="B144" t="s" s="0">
+      <c r="B144" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s" s="0">
+      <c r="A145" t="s">
         <v>157</v>
       </c>
-      <c r="B145" t="s" s="0">
+      <c r="B145" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s" s="0">
+      <c r="A146" t="s">
         <v>158</v>
       </c>
-      <c r="B146" t="s" s="0">
+      <c r="B146" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s" s="0">
+      <c r="A147" t="s">
         <v>159</v>
       </c>
-      <c r="B147" t="s" s="0">
+      <c r="B147" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s" s="0">
+      <c r="A148" t="s">
         <v>160</v>
       </c>
-      <c r="B148" t="s" s="0">
+      <c r="B148" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s" s="0">
+      <c r="A149" t="s">
         <v>161</v>
       </c>
-      <c r="B149" t="s" s="0">
+      <c r="B149" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s" s="0">
+      <c r="A150" t="s">
         <v>162</v>
       </c>
-      <c r="B150" t="s" s="0">
+      <c r="B150" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s" s="0">
+      <c r="A151" t="s">
         <v>163</v>
       </c>
-      <c r="B151" t="s" s="0">
+      <c r="B151" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s" s="0">
+      <c r="A152" t="s">
         <v>164</v>
       </c>
-      <c r="B152" t="s" s="0">
+      <c r="B152" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s" s="0">
+      <c r="A153" t="s">
         <v>165</v>
       </c>
-      <c r="B153" t="s" s="0">
+      <c r="B153" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s" s="0">
+      <c r="A154" t="s">
         <v>166</v>
       </c>
-      <c r="B154" t="s" s="0">
+      <c r="B154" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s" s="0">
+      <c r="A155" t="s">
         <v>167</v>
       </c>
-      <c r="B155" t="s" s="0">
+      <c r="B155" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s" s="0">
+      <c r="A156" t="s">
         <v>168</v>
       </c>
-      <c r="B156" t="s" s="0">
+      <c r="B156" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s" s="0">
+      <c r="A157" t="s">
         <v>169</v>
       </c>
-      <c r="B157" t="s" s="0">
+      <c r="B157" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s" s="0">
+      <c r="A158" t="s">
         <v>170</v>
       </c>
-      <c r="B158" t="s" s="0">
+      <c r="B158" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s" s="0">
+      <c r="A159" t="s">
         <v>171</v>
       </c>
-      <c r="B159" t="s" s="0">
+      <c r="B159" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s" s="0">
+      <c r="A160" t="s">
         <v>172</v>
       </c>
-      <c r="B160" t="s" s="0">
+      <c r="B160" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s" s="0">
+      <c r="A161" t="s">
         <v>173</v>
       </c>
-      <c r="B161" t="s" s="0">
+      <c r="B161" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s" s="0">
+      <c r="A162" t="s">
         <v>174</v>
       </c>
-      <c r="B162" t="s" s="0">
+      <c r="B162" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s" s="0">
+      <c r="A163" t="s">
         <v>175</v>
       </c>
-      <c r="B163" t="s" s="0">
+      <c r="B163" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s" s="0">
+      <c r="A164" t="s">
         <v>176</v>
       </c>
-      <c r="B164" t="s" s="0">
+      <c r="B164" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s" s="0">
+      <c r="A165" t="s">
         <v>177</v>
       </c>
-      <c r="B165" t="s" s="0">
+      <c r="B165" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s" s="0">
+      <c r="A166" t="s">
         <v>178</v>
       </c>
-      <c r="B166" t="s" s="0">
+      <c r="B166" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s" s="0">
+      <c r="A167" t="s">
         <v>179</v>
       </c>
-      <c r="B167" t="s" s="0">
+      <c r="B167" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s" s="0">
+      <c r="A168" t="s">
         <v>180</v>
       </c>
-      <c r="B168" t="s" s="0">
+      <c r="B168" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s" s="0">
+      <c r="A169" t="s">
         <v>181</v>
       </c>
-      <c r="B169" t="s" s="0">
+      <c r="B169" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s" s="0">
+      <c r="A170" t="s">
         <v>182</v>
       </c>
-      <c r="B170" t="s" s="0">
+      <c r="B170" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s" s="0">
+      <c r="A171" t="s">
         <v>183</v>
       </c>
-      <c r="B171" t="s" s="0">
+      <c r="B171" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s" s="0">
+      <c r="A172" t="s">
         <v>184</v>
       </c>
-      <c r="B172" t="s" s="0">
+      <c r="B172" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s" s="0">
+      <c r="A173" t="s">
         <v>185</v>
       </c>
-      <c r="B173" t="s" s="0">
+      <c r="B173" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s" s="0">
+      <c r="A174" t="s">
         <v>186</v>
       </c>
-      <c r="B174" t="s" s="0">
+      <c r="B174" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s" s="0">
+      <c r="A175" t="s">
         <v>187</v>
       </c>
-      <c r="B175" t="s" s="0">
+      <c r="B175" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s" s="0">
+      <c r="A176" t="s">
         <v>188</v>
       </c>
-      <c r="B176" t="s" s="0">
+      <c r="B176" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s" s="0">
+      <c r="A177" t="s">
         <v>189</v>
       </c>
-      <c r="B177" t="s" s="0">
+      <c r="B177" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s" s="0">
+      <c r="A178" t="s">
         <v>190</v>
       </c>
-      <c r="B178" t="s" s="0">
+      <c r="B178" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s" s="0">
+      <c r="A179" t="s">
         <v>191</v>
       </c>
-      <c r="B179" t="s" s="0">
+      <c r="B179" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s" s="0">
+      <c r="A180" t="s">
         <v>192</v>
       </c>
-      <c r="B180" t="s" s="0">
+      <c r="B180" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s" s="0">
+      <c r="A181" t="s">
         <v>193</v>
       </c>
-      <c r="B181" t="s" s="0">
+      <c r="B181" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s" s="0">
+      <c r="A182" t="s">
         <v>194</v>
       </c>
-      <c r="B182" t="s" s="0">
+      <c r="B182" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s" s="0">
+      <c r="A183" t="s">
         <v>195</v>
       </c>
-      <c r="B183" t="s" s="0">
+      <c r="B183" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s" s="0">
+      <c r="A184" t="s">
         <v>196</v>
       </c>
-      <c r="B184" t="s" s="0">
+      <c r="B184" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s" s="0">
+      <c r="A185" t="s">
         <v>197</v>
       </c>
-      <c r="B185" t="s" s="0">
+      <c r="B185" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s" s="0">
+      <c r="A186" t="s">
         <v>198</v>
       </c>
-      <c r="B186" t="s" s="0">
+      <c r="B186" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s" s="0">
+      <c r="A187" t="s">
         <v>199</v>
       </c>
-      <c r="B187" t="s" s="0">
+      <c r="B187" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s" s="0">
+      <c r="A188" t="s">
         <v>200</v>
       </c>
-      <c r="B188" t="s" s="0">
+      <c r="B188" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s" s="0">
+      <c r="A189" t="s">
         <v>201</v>
       </c>
-      <c r="B189" t="s" s="0">
+      <c r="B189" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s" s="0">
+      <c r="A190" t="s">
         <v>202</v>
       </c>
-      <c r="B190" t="s" s="0">
+      <c r="B190" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s" s="0">
+      <c r="A191" t="s">
         <v>203</v>
       </c>
-      <c r="B191" t="s" s="0">
+      <c r="B191" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s" s="0">
+      <c r="A192" t="s">
         <v>204</v>
       </c>
-      <c r="B192" t="s" s="0">
+      <c r="B192" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s" s="0">
+      <c r="A193" t="s">
         <v>205</v>
       </c>
-      <c r="B193" t="s" s="0">
+      <c r="B193" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s" s="0">
+      <c r="A194" t="s">
         <v>207</v>
       </c>
-      <c r="B194" t="s" s="0">
+      <c r="B194" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s" s="0">
+      <c r="A195" t="s">
         <v>208</v>
       </c>
-      <c r="B195" t="s" s="0">
+      <c r="B195" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s" s="0">
+      <c r="A196" t="s">
         <v>209</v>
       </c>
-      <c r="B196" t="s" s="0">
+      <c r="B196" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s" s="0">
+      <c r="A197" t="s">
         <v>210</v>
       </c>
-      <c r="B197" t="s" s="0">
+      <c r="B197" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s" s="0">
+      <c r="A198" t="s">
         <v>211</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="s" s="0">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>212</v>
       </c>
-      <c r="B199" t="s" s="0">
-        <v>59</v>
+      <c r="B199" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="214">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/sterijina/59d8bcc27ce3af04392915e9</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/djurdja-brankovica-10/63bb045eed45f16fe10f59bb</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B199"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -2601,6 +2604,14 @@
         <v>59</v>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="215">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/djurdja-brankovica-10/63bb045eed45f16fe10f59bb</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/ratarska/618eb64741aff24e013842ab</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B200"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -2612,6 +2615,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="201">
+      <c r="A201" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -659,6 +659,39 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/ratarska/618eb64741aff24e013842ab</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/sajmiste/63bc2454428dccada7061732</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/okrugiceva/63bc2405428dccada7061714</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/1300-kaplara/63bc22348f7abd753b03a3a4</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/djure-jaksica/63bc1589e2888876b105d34d</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/salajka/63bc0a64f4a57076c70454b3</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/rotkvarija/63bc071b0210f77f880cb311</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novo-naselje/63bbfcfb858992bc460218de</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-vojvode-stepe/63bbeca020ca8ecfb0082c81</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-oslobodjenja/63bbdf308ceab3b88a0483ea</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/hadzi-ruvimova/6399ccf059f147855c01181e</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-oslobodjenja/638dbb2756c88d74dd0edd84</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -1935,12 +1968,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="A116" t="s" s="0">
         <v>128</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2023,12 +2056,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127">
       <c r="A127" t="s" s="0">
         <v>139</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2103,12 +2136,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="A137" t="s" s="0">
         <v>149</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2620,6 +2653,94 @@
         <v>214</v>
       </c>
       <c r="B201" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B203" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B212" t="s" s="0">
         <v>9</v>
       </c>
     </row>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="232">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -692,6 +692,24 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-oslobodjenja/638dbb2756c88d74dd0edd84</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-evrope/63bc5eb65c38b7deff0fac26</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novi-sad-centar/63bc5d165c38b7deff0fabcf</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/cara-dusana/63bc5250fc036117b903c777</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/dr-svetislava-kasapinovica/63bc4d22a0460454750a974e</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara-novi-sad/63bc2fe53252d4ab7503b4a0</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara/6398b7a384f134d14603f878</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B212"/>
+  <dimension ref="A1:B218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -2744,6 +2762,54 @@
         <v>9</v>
       </c>
     </row>
+    <row r="213">
+      <c r="A213" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="B214" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B215" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="B216" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B217" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="B218" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="252">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -710,6 +710,66 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara/6398b7a384f134d14603f878</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novi-sad-centar/63a1ac0bbdc1be63350b8b77</t>
+  </si>
+  <si>
+    <t>1.200 €</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-oslobodjenja/63bd3fb3ba8c5691a60ffe67</t>
+  </si>
+  <si>
+    <t>900 €</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/somborska/6363db312b6666fbda0a8546</t>
+  </si>
+  <si>
+    <t>550 €</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kopernikova/63ad804a8be770da1a0402d5</t>
+  </si>
+  <si>
+    <t>750 €</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/sajmiste/63bd3206312cee91770a8b07</t>
+  </si>
+  <si>
+    <t>600 €</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-oslobodjenja/63a2f21a29dea8590f096749</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/dr-djure-jovanovica-kindera-6/63bc6725b8818cb50f0cd20d</t>
+  </si>
+  <si>
+    <t>450 €</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/grbavica/63a485d8e7a5758c420a1851</t>
+  </si>
+  <si>
+    <t>1.500 €</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/avijaticarsko-naselje/63bd5ae67dae58073e01e303</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/branislava-nusica/63bd59787dae58073e01e27a</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/brace-dronjak/63bd441915053b107e040237</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-oslobodjenja/63bd3e1aba8c5691a60ffdc9</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/adice/63bd32fbd7dd10ce3e0be501</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B218"/>
+  <dimension ref="A1:B231"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -2426,12 +2486,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171">
       <c r="A171" t="s" s="0">
         <v>183</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -2808,6 +2868,110 @@
       </c>
       <c r="B218" t="s" s="0">
         <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B219" t="s" s="0">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B220" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B221" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B222" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B223" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B224" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="B225" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B226" t="s" s="0">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B227" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="B228" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="B229" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B230" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="B231" t="s" s="0">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="263">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -770,6 +770,39 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/adice/63bd32fbd7dd10ce3e0be501</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/branislava-nusica/63bd6679cb57b857d80e72f3</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kolo-srpskih-sestara/63bd9f1d54d7f33f30093119</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-evrope-novi-sad/63bd9d87fc5f0b0b7601955e</t>
+  </si>
+  <si>
+    <t>220 €</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/adice-novi-sad/63bd9d83fc5f0b0b7601955b</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-oslobodjenja-24/63bd797a3c2190b4590fedf9</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara/63bd76fac0dfab9bb30d8ec6</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-cara-lazara/63bd75cc0aee55d1a201984a</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/branimira-cosica/63bd6673cb57b857d80e72f0</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/cara-dusana-novi-sad/63bd6557cb57b857d80e728d</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/olge-petrov-34/63adef1d60f6d5c56d03a23e</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1148,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B231"/>
+  <dimension ref="A1:B241"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -2166,12 +2199,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" t="s" s="0">
         <v>143</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2342,12 +2375,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153">
       <c r="A153" t="s" s="0">
         <v>165</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2972,6 +3005,86 @@
       </c>
       <c r="B231" t="s" s="0">
         <v>32</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B232" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="B233" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="B234" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="B235" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="B236" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B237" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B238" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B239" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="B240" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="B241" t="s" s="0">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="264">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -803,6 +803,9 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/olge-petrov-34/63adef1d60f6d5c56d03a23e</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/salajka-novi-sad/63be00922484407472076377</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B241"/>
+  <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -3087,6 +3090,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="B242" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="270">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -806,6 +806,24 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/salajka-novi-sad/63be00922484407472076377</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/janka-cmelika/63be649155747224e5086e6e</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/sajmiste/63bea10014313e8de209c065</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-oslobodjenja/63be9d2c53189ae473048786</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/branka-bajica/63be99cd78bd19681a0c5033</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljevica-marka/63be98b0ba448e89190205c3</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novosadskog-sajma/63be88fcbe5fc8ccdb04882e</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1169,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B242"/>
+  <dimension ref="A1:B248"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -2194,12 +2212,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="A130" t="s" s="0">
         <v>142</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131">
@@ -2887,7 +2905,7 @@
         <v>229</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217">
@@ -3095,6 +3113,54 @@
         <v>263</v>
       </c>
       <c r="B242" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="B243" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="B244" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="B245" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="B246" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B247" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="B248" t="s" s="0">
         <v>3</v>
       </c>
     </row>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="275">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -824,6 +824,21 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novosadskog-sajma/63be88fcbe5fc8ccdb04882e</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kornelija-stankovica/63bec56b6870428e710ab59b</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara/63bebcce1a68ecdb59034f94</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara-novi-sad/63beb6cccb11fee1d5079e0c</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/adice/63beaf092ba300ebe3068a76</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/salajka/63bead79678767ab3c06e25f</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B248"/>
+  <dimension ref="A1:B253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -1220,12 +1235,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s" s="0">
         <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>9</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3161,6 +3176,46 @@
         <v>269</v>
       </c>
       <c r="B248" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B249" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="B250" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B251" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="B252" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B253" t="s" s="0">
         <v>3</v>
       </c>
     </row>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="286">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -839,6 +839,39 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/salajka/63bead79678767ab3c06e25f</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/branimira-cosica/63bef09c1147f692e50230e3</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljevica-marka/63bef0991147f692e50230dd</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/63bee5bc0e06140c2805f68b</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/socijalno/63bed7c878c439b6960c3727</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novi-sad-centar/63bed7c578c439b6960c3724</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/petrovaradin/63bed6a678c439b6960c36d2</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novo-naselje/63bed5d899559164500a1433</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljevica-marka/63bed43678c439b6960c3607</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/centar-novi-sad/63bed31478c439b6960c35bc</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara-novi-sad/63bed30a78c439b6960c35b9</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/sa-troskovima/639762545c4f3faf260e07b6</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B253"/>
+  <dimension ref="A1:B264"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -3219,6 +3252,94 @@
         <v>3</v>
       </c>
     </row>
+    <row r="254">
+      <c r="A254" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="B254" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="B255" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="B256" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B257" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="B258" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B259" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B260" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B261" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="B262" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B263" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B264" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="287">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -872,6 +872,9 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/sa-troskovima/639762545c4f3faf260e07b6</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/centar-novi-sad/63bf0b353bfd224e5d0fdde9</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B264"/>
+  <dimension ref="A1:B265"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -3340,6 +3343,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="265">
+      <c r="A265" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B265" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="294">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -875,6 +875,27 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/centar-novi-sad/63bf0b353bfd224e5d0fdde9</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/socijalno-novi-sad/63bfec30f388ceb8c70a9a3e</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/milana-rakica/625e8956d6702b6cf2529445</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/63bfe7707b28879d5404a1db</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/m-crnjanskog/63bfe14e936210bb2d022e87</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/adice/63bfd2df927f639b1e000513</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bele-njive/63bf44c68dc8cae73509bc03</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/mileve-maric/63bf44c48dc8cae73509bc00</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B265"/>
+  <dimension ref="A1:B272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -3244,7 +3265,7 @@
         <v>273</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="253">
@@ -3349,6 +3370,62 @@
       </c>
       <c r="B265" t="s" s="0">
         <v>3</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="B266" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B267" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="B268" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B269" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="B270" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B271" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="B272" t="s" s="0">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="302">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -896,6 +896,30 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/mileve-maric/63bf44c48dc8cae73509bc00</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/tone-hadzica/63c01b9048eee09a1709f5b2</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-oslobodjenja/63c01aea05c26395cf0c8393</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novi-sad-centar/63c01add05c26395cf0c838f</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kisacka/63c009b2bee3a017a4066bec</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/socijalno-novi-sad/63c00869bee3a017a4066b8b</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/salajka-novi-sad/63c00866bee3a017a4066b88</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/satelit/63bfff01bee3a017a4066b2d</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/rumenacka/63bffc87dcc5578ec804614e</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B272"/>
+  <dimension ref="A1:B280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -3428,6 +3452,70 @@
         <v>59</v>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B273" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B274" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B275" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="B276" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B277" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="B278" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B279" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="B280" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="309">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -920,6 +920,27 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/rumenacka/63bffc87dcc5578ec804614e</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/jugovicevo/63b5fd95b9798596a00b04cf</t>
+  </si>
+  <si>
+    <t>1.300 €</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/mirona-djordjevica/63c0354a0b90fb1fac056e8f</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/rumenacka-100/63c037bf5aa020ead503ac52</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/sajmiste/63c037b585ebf287d7085dbc</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-cara-lazara/63c02e17bd3597880503b983</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-oslobodjenja/63694fc5ecc7b9de4401cf83</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1286,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B280"/>
+  <dimension ref="A1:B286"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -1748,12 +1769,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" t="s" s="0">
         <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2641,7 +2662,7 @@
         <v>183</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3514,6 +3535,54 @@
       </c>
       <c r="B280" t="s" s="0">
         <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B281" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B282" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B283" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B284" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B285" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B286" t="s" s="0">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="330">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -941,6 +941,69 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-oslobodjenja/63694fc5ecc7b9de4401cf83</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/grbavica/63c1b19293b64baa4f0b0c0b</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/ibarska/63c14e630ae11e6fa60422b5</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/koste-sokice/63c16a7c58c6e31e8b046afc</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-evrope/63c2a0d5dc90bd596c094815</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/janka-cmelika/63c2918eb77826a2cf034b57</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/futoska/62f11c7a070f3d26c80b5561</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/sajam-novi-sad/63c1f557e09a44bc6b00b31a</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara-novi-sad/63c1f557e09a44bc6b00b317</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/veselina-masese/63c1a2e49605980d710e8b4d</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara/63c196c7e3f441b30b01b1bf</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/adice-novi-sad/63c1920ae3f441b30b01b05c</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/adice/63c18881ffce846dac0144cd</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/antuna-urbana/63c1861dffce846dac0143f0</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/antuna-urbana/63c16a7258c6e31e8b046af6</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bul-despota-stefana-16/63c14fed0df598045806a29a</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/cara-dusana/63c142f8a6f3b68bfb0fe0bd</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novo-naselje-novi-sad/63c13da861f5e95e0a069711</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novi-majur/63c1389c5b2dcc9e8207c390</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/takovska/63c1336561f5e95e0a069685</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/adice-novi-sad/63c05ca44c5514b8220d75d7</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-evrope/63bc4d87a0460454750a9766</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B286"/>
+  <dimension ref="A1:B307"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -1441,12 +1504,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s" s="0">
         <v>24</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2369,12 +2432,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="A135" t="s" s="0">
         <v>147</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3446,7 +3509,7 @@
         <v>290</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>3</v>
+        <v>79</v>
       </c>
     </row>
     <row r="270">
@@ -3582,6 +3645,174 @@
         <v>308</v>
       </c>
       <c r="B286" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B287" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="B288" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B289" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="B290" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="B291" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="B292" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="B293" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="B294" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B295" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="B296" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B297" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B298" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B299" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="B300" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="B301" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B302" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B303" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="B304" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="B305" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="B306" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B307" t="s" s="0">
         <v>3</v>
       </c>
     </row>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="331">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1004,6 +1004,9 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-evrope/63bc4d87a0460454750a9766</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/cankereva-6-6/63c2f55db505e6ae5c0f6319</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B307"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -3816,6 +3819,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="B308" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="333">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1007,6 +1007,12 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/cankereva-6-6/63c2f55db505e6ae5c0f6319</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/ibarska/63c3d4b1db1e52bd9900ab48</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/draska-redjepa/63c315de7132cc9c6b0e30ce</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:B310"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -3827,6 +3833,22 @@
         <v>54</v>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="B309" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="B310" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="335">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1013,6 +1013,12 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/draska-redjepa/63c315de7132cc9c6b0e30ce</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/cirpanova-2/6242b643d6327a005e73cf54</t>
+  </si>
+  <si>
+    <t>30 €</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B310"/>
+  <dimension ref="A1:B311"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -3849,6 +3855,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="B311" t="s" s="0">
+        <v>334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="347">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1019,6 +1019,42 @@
   </si>
   <si>
     <t>30 €</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novi-sad-centar/63c5612b94263bd19a071dcd</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novi-sad-centar/63c5612a94263bd19a071dca</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/grbavica/63c55342f48b7fdaac0cb1d3</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/grbavica/63c5533df48b7fdaac0cb1d0</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novi-sad-centar/63c55160f48b7fdaac0cb12e</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/gunduliceva/63c5447f7928139dc90b7b21</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-evrope/63c543c6b4b1f05fca0a98f1</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/adice/63c542c7b4b1f05fca0a988b</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/rotkvarija/63c5374f3ff8d589800733cc</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-evrope/63c5180e7141f1c3890c620c</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/cara-dusana-37/63c43f28bb24f6da5c006b96</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljevica-marka-19/63a6ff6af9b6f0b02d05f861</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B311"/>
+  <dimension ref="A1:B323"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -1671,12 +1707,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s" s="0">
         <v>46</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>9</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1839,12 +1875,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s" s="0">
         <v>69</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60">
@@ -2980,7 +3016,7 @@
         <v>214</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="202">
@@ -3044,7 +3080,7 @@
         <v>222</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210">
@@ -3861,6 +3897,102 @@
       </c>
       <c r="B311" t="s" s="0">
         <v>334</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B312" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="B313" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B314" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="B315" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B316" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B317" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B318" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B319" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B320" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="B321" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B322" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="B323" t="s" s="0">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="353">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1055,6 +1055,24 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kraljevica-marka-19/63a6ff6af9b6f0b02d05f861</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/studenicka/63c596e752d35d7ede0b43c7</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/rotkvarija-novi-sad/63c5949d52d35d7ede0b436d</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/satelit/63c58be7363ee6fb730f3b08</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara/63c58be0363ee6fb730f3b05</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/veselina-maslese/63c58823363ee6fb730f39fe</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-evrope/63c587b3363ee6fb730f39ce</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B323"/>
+  <dimension ref="A1:B329"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -3048,7 +3066,7 @@
         <v>218</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206">
@@ -3993,6 +4011,54 @@
       </c>
       <c r="B323" t="s" s="0">
         <v>3</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B324" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="B325" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B326" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B327" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B328" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="B329" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="354">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1073,6 +1073,9 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-evrope/63c587b3363ee6fb730f39ce</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/telep-novi-sad/63c5a29f9e833b9e300aaa4a</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B329"/>
+  <dimension ref="A1:B330"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -4061,6 +4064,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B330" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="370">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1076,6 +1076,54 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/telep-novi-sad/63c5a29f9e833b9e300aaa4a</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/rotkvarija/63a59ff9d06d51c610077b7a</t>
+  </si>
+  <si>
+    <t>650 €</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/janka-cmelika-25a/63c6a9eecd4ea7ccce041193</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara/63c6a4b4e6ad34ec1101f15c</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/skerliceva/63c6a18e99d5c75efc0493f7</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-oslobodjenja/63c6970c99d5c75efc049333</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-oslobodjenja/63c6947bf744921aa30db35f</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/adice/63c68923f2c8a331a80cb161</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/socijalno/63c68800f2c8a331a80cb104</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/satelit/638768ea3265e158fc0567e3</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/koste-racina-16/637d1fd7bc429579000a21fe</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/petrovaradin/63c6793648ab9e10020efa4e</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-patrijarha-pavla/63c677eeb45ea85814099fa1</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novo-naselje/63c6738e9406781795053e0a</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/adice/63c66cb8b45ea85814099ee5</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara/63c64c80decfd403220507db</t>
   </si>
 </sst>
 </file>
@@ -1421,7 +1469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B330"/>
+  <dimension ref="A1:B345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -2008,12 +2056,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" t="s" s="0">
         <v>84</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3157,7 +3205,7 @@
         <v>229</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217">
@@ -4070,6 +4118,126 @@
       </c>
       <c r="B330" t="s" s="0">
         <v>3</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="B331" t="s" s="0">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="B332" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B333" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B334" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="B335" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="B336" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="B337" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B338" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="B339" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="B340" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="B341" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="B342" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="B343" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="B344" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B345" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="371">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1124,6 +1124,9 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara/63c64c80decfd403220507db</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/dalmatinska/63c684d048ab9e10020efb0b</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B345"/>
+  <dimension ref="A1:B346"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -4240,6 +4243,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="B346" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="379">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1127,6 +1127,30 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/dalmatinska/63c684d048ab9e10020efb0b</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/brace-dronjak/63c6e0bc2038eb1ebf07951b</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/arse-teodorovica/63c6d9d63e165655950b5528</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/olivere-markovic/63c6d9d53e165655950b5525</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/kisacka/63c6d9cc3e165655950b551c</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novo-naselje-novi-sad/63c6d80b3e165655950b549c</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara-novi-sad/63c6d80a3e165655950b5499</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/adice/63c6b89d825c106a810c6dd9</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/cankareva-27/638540e5b14fa1afbe0fc8e1</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B346"/>
+  <dimension ref="A1:B354"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -1960,7 +1984,7 @@
         <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3944,7 +3968,7 @@
         <v>330</v>
       </c>
       <c r="B308" t="s" s="0">
-        <v>54</v>
+        <v>206</v>
       </c>
     </row>
     <row r="309">
@@ -4249,6 +4273,70 @@
       </c>
       <c r="B346" t="s" s="0">
         <v>14</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="B347" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="B348" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B349" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="B350" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="B351" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="B352" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B353" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="B354" t="s" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="389">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1151,6 +1151,36 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/cankareva-27/638540e5b14fa1afbe0fc8e1</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/telep/63c48d08b69ea1d3380e0428</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-evrope/63c7bda70f9c16d2b90e47ad</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/mileve-maric/63c7b9580f9c16d2b90e45d1</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/narodnog-fronta/63c7b9500f9c16d2b90e45a1</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/danila-kisa/63c7b94d0f9c16d2b90e4595</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/socijalno-novi-sad/63c71047a328e48f69005630</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/janka-cmelika/63c6f577f6da32461e0223e8</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/futoska/63c6f575f6da32461e0223e5</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/detelinara-novi-sad/63c6f42ef6da32461e022399</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/severni-telep/62d5084f9fa86d57050d608a</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B354"/>
+  <dimension ref="A1:B364"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -2139,12 +2169,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" t="s" s="0">
         <v>91</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -4337,6 +4367,86 @@
       </c>
       <c r="B354" t="s" s="0">
         <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="B355" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="B356" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="B357" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="B358" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="B359" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="B360" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="B361" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="B362" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B363" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="B364" t="s" s="0">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="399">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1181,6 +1181,36 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/severni-telep/62d5084f9fa86d57050d608a</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara/63c81f4c48f4cb15da027a4f</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/radnicka/63c806f0a20747420002e3a6</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova/63c80b27e9acd80dd60371a5</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/dositejeva/63c7ff8542817479ee0ac0cd</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novi-sad-centar/63c7f5405577393840093560</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara/63c7f53f557739384009355d</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/sajmiste/63c7f5365577393840093557</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/polgar-andarasa/63c7ebc36e68e3ae4b0f903b</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/polgar-andrasa/63c7df3e6045072311040438</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/grbavica/63c7d8e7cf416b66fe0d6c56</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B364"/>
+  <dimension ref="A1:B374"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -4302,7 +4332,7 @@
         <v>370</v>
       </c>
       <c r="B346" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="347">
@@ -4447,6 +4477,86 @@
       </c>
       <c r="B364" t="s" s="0">
         <v>54</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="B365" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="B366" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B367" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B368" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="B369" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B370" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="B371" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="B372" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="B373" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="B374" t="s" s="0">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="400">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1211,6 +1211,9 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/grbavica/63c7d8e7cf416b66fe0d6c56</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/grbavica/63c83b7977787494f502f933</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B374"/>
+  <dimension ref="A1:B375"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -4559,6 +4562,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="375">
+      <c r="A375" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B375" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="401">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1214,6 +1214,9 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/grbavica/63c83b7977787494f502f933</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-novi-sad/63c845a1258a86fad00d1e99</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B375"/>
+  <dimension ref="A1:B376"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -4570,6 +4573,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="376">
+      <c r="A376" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="B376" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="401">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -4442,7 +4442,7 @@
         <v>383</v>
       </c>
       <c r="B359" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="360">

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="401">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -2117,12 +2117,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" t="s" s="0">
         <v>80</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -3850,7 +3850,7 @@
         <v>307</v>
       </c>
       <c r="B285" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="406">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1217,6 +1217,21 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-novi-sad/63c845a1258a86fad00d1e99</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/grbavica/63c947b60bf730c4db0a1683</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/mise-dimitrijevica/63c944193ad0c6c258028f32</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara-novi-sad/63c942c93ad0c6c258028e9d</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-jovana-ducica/63c6f2e9bf769b96030378c7</t>
+  </si>
+  <si>
+    <t>210 €</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B376"/>
+  <dimension ref="A1:B380"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -1805,12 +1820,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s" s="0">
         <v>37</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2525,12 +2540,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="A120" t="s" s="0">
         <v>132</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,12 +3124,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193">
       <c r="A193" t="s" s="0">
         <v>205</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>206</v>
+        <v>405</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -4579,6 +4594,38 @@
       </c>
       <c r="B376" t="s" s="0">
         <v>5</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="B377" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="B378" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="B379" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="B380" t="s" s="0">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="412">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1232,6 +1232,24 @@
   </si>
   <si>
     <t>210 €</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/mise-dimitrijevica/63c97c87cc6170995e0c6ac4</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/branimira-cosica/63c97c7bcc6170995e0c6ac1</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/grbavica-novi-sad/63c97b17cc6170995e0c6a6f</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/grbavica/63c97137cc20a5ad5208b6bb</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/branimira-cosica/63c9613c85dbeace71062c0d</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/avijacija-novi-sad/637687557bb86f952504c177</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B380"/>
+  <dimension ref="A1:B386"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -4628,6 +4646,54 @@
         <v>3</v>
       </c>
     </row>
+    <row r="381">
+      <c r="A381" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="B381" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="B382" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="B383" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="B384" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="B385" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="B386" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="414">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1250,6 +1250,12 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/avijacija-novi-sad/637687557bb86f952504c177</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/cerevicka/63c9d111f96e8afe3a04a2a3</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/stanoja-stanojevica/63c9b3a19cbfb0f66a01dcec</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B386"/>
+  <dimension ref="A1:B388"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -4694,6 +4700,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="387">
+      <c r="A387" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="B387" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="B388" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="418">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1256,6 +1256,18 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/stanoja-stanojevica/63c9b3a19cbfb0f66a01dcec</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/cara-dusana/63caa6eed00ad97d71095610</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/grbavica/63ca96915b908bd14c08ded6</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/nova-detelinara-novi-sad/63ca874f5bb214743702f8fc</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-patrijarha-pavla-novi-sad/63ca78224ced8f73560c6c14</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B388"/>
+  <dimension ref="A1:B392"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -4716,6 +4728,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="389">
+      <c r="A389" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="B389" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="B390" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="B391" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="B392" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="419">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1268,6 +1268,9 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/bulevar-patrijarha-pavla-novi-sad/63ca78224ced8f73560c6c14</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/telep/63cbb9b915000638ec09fc1b</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B392"/>
+  <dimension ref="A1:B393"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -4277,7 +4280,7 @@
         <v>356</v>
       </c>
       <c r="B332" t="s" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333">
@@ -4509,7 +4512,7 @@
         <v>385</v>
       </c>
       <c r="B361" t="s" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="362">
@@ -4758,6 +4761,14 @@
       </c>
       <c r="B392" t="s" s="0">
         <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="B393" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="421">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1271,6 +1271,12 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/telep/63cbb9b915000638ec09fc1b</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/novosadskog-sajma/63c0258605c26395cf0c844f</t>
+  </si>
+  <si>
+    <t>700 €</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B393"/>
+  <dimension ref="A1:B394"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -4771,6 +4777,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="394">
+      <c r="A394" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="B394" t="s" s="0">
+        <v>420</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="429">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1277,6 +1277,30 @@
   </si>
   <si>
     <t>700 €</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/janka-cmelika/63cbf56e51ab11239b093525</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/adice/63cbf56751ab11239b093519</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/zlatariceva-18/63cbf55f75148bb4d003bf60</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/telep/63cbe9ed24db21e7fe0ea12e</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/seljackih-buna/63cbe55fe8ca742dab006b9e</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/cara-dusana/63cbcd62d36390c85104b8cf</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/petra-kocica/6304ec6d933b2727930ba869</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/matice-srpske-8/5edec06b9a309168990efe9f</t>
   </si>
 </sst>
 </file>
@@ -1622,7 +1646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B394"/>
+  <dimension ref="A1:B402"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -4785,6 +4809,70 @@
         <v>420</v>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="B395" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="B396" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="B397" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="B398" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="B399" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="B400" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="B401" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="B402" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/FourWalls.xlsx
+++ b/target/classes/FourWalls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="430">
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/podbara/6397399cd4250c7b4702402a</t>
   </si>
@@ -1301,6 +1301,9 @@
   </si>
   <si>
     <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/matice-srpske-8/5edec06b9a309168990efe9f</t>
+  </si>
+  <si>
+    <t>https://www.4zida.rs/izdavanje/stanovi/novi-sad/oglas/zoje-mirosavljevic-1/63cc43d4c69f2619990bdc73</t>
   </si>
 </sst>
 </file>
@@ -1646,7 +1649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B402"/>
+  <dimension ref="A1:B403"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
       <selection activeCell="A203" sqref="A203"/>
@@ -4873,6 +4876,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="B403" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
